--- a/report_wind_tax_incentive_6000.xlsx
+++ b/report_wind_tax_incentive_6000.xlsx
@@ -1031,7 +1031,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>463.9691379322355</v>
+        <v>612</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -1114,19 +1114,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>252.2</v>
+        <v>372.2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>362.7378521297665</v>
+        <v>372.2</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -1138,25 +1138,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>372.2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>271.7936768696014</v>
+        <v>372.2</v>
       </c>
       <c r="O8" t="n">
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1203,19 +1203,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>252.2</v>
+        <v>372.2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>362.7378521297665</v>
+        <v>372.2</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -1227,25 +1227,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>372.2</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>271.7936768696011</v>
+        <v>372.2</v>
       </c>
       <c r="O9" t="n">
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1292,16 +1292,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>244</v>
@@ -1316,16 +1316,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>244</v>
@@ -1381,16 +1381,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>243.5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>243.5</v>
@@ -1405,16 +1405,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>243.5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>243.5</v>
@@ -1470,40 +1470,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>149.8</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>149.8</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.8</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>149.8</v>
@@ -1559,16 +1559,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>144.4</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>144.4</v>
@@ -1583,28 +1583,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>144.4</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>144.4</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>144.4</v>
@@ -1648,40 +1648,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>82</v>
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1737,16 +1737,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>80</v>
@@ -1761,16 +1761,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>80</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1826,52 +1826,52 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>47.9</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>47.9</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>47.9</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>47.9</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>47.9</v>
@@ -1915,52 +1915,52 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>47.5</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -3307,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>693.8</v>
+        <v>664.7415060000021</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
@@ -3363,16 +3363,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>693.8</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N33" t="n">
         <v>693.8</v>
@@ -3428,16 +3428,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>685.3</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F34" t="n">
         <v>685.3</v>
@@ -3452,16 +3452,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>685.3</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N34" t="n">
         <v>685.3</v>
@@ -3565,16 +3565,16 @@
         <v>11</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>311.9558659999997</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3612,13 +3612,13 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>110.9599999999998</v>
+        <v>110.96</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -3695,7 +3695,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>515.5</v>
+        <v>115.5</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -3707,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>515.5</v>
+        <v>301.8888139999999</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -3716,10 +3716,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>515.5</v>
+        <v>103.1</v>
       </c>
       <c r="K37" t="n">
         <v>1</v>
@@ -3731,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>515.5</v>
+        <v>249.7482900305193</v>
       </c>
       <c r="O37" t="n">
         <v>1</v>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V37" t="n">
         <v>515.5</v>
@@ -4051,19 +4051,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>143.9415060000048</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>186.6931097404678</v>
+        <v>54.18</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>125.5535500677673</v>
+        <v>54.18</v>
       </c>
       <c r="K41" t="n">
         <v>1</v>
@@ -4087,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>180.0609362607964</v>
+        <v>54.17999999999995</v>
       </c>
       <c r="O41" t="n">
         <v>1</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>270.4792560000005</v>
+        <v>270.4792560000037</v>
       </c>
       <c r="W41" t="n">
         <v>1</v>
@@ -4520,10 +4520,10 @@
         <v>11</v>
       </c>
       <c r="J46" t="n">
-        <v>48.98</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -4532,10 +4532,10 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>48.98</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -4642,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="AC47" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
@@ -4719,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
@@ -4743,19 +4743,19 @@
         <v>0</v>
       </c>
       <c r="Y48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="n">
         <v>4</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -4787,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>238.3</v>
+        <v>218.6226880000033</v>
       </c>
       <c r="K49" t="n">
         <v>1</v>
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -4897,19 +4897,19 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R50" t="n">
-        <v>212.9391576791811</v>
+        <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50" t="n">
         <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -4998,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -5013,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="Z51" t="n">
-        <v>30.94000000000108</v>
+        <v>30.94000000000102</v>
       </c>
       <c r="AA51" t="n">
         <v>1</v>
@@ -5075,19 +5075,19 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R52" t="n">
-        <v>99.01670832081955</v>
+        <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T52" t="n">
         <v>0</v>
       </c>
       <c r="U52" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -5253,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -5277,7 +5277,7 @@
         <v>0</v>
       </c>
       <c r="Y54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z54" t="n">
         <v>0</v>
@@ -5330,7 +5330,7 @@
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="Y55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z55" t="n">
         <v>0</v>
@@ -5431,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -5455,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="Y56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z56" t="n">
         <v>0</v>
@@ -5573,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -5609,7 +5609,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -5633,7 +5633,7 @@
         <v>0</v>
       </c>
       <c r="Y58" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z58" t="n">
         <v>0</v>
@@ -5645,7 +5645,7 @@
         <v>0</v>
       </c>
       <c r="AC58" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59">
@@ -5653,16 +5653,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
